--- a/app/Licenciatura_em_Jornalismo_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Jornalismo_Pos_Laboral.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Cambula Cumbe</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Maria Quive</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101041048P</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t xml:space="preserve">Creta Azael Zita </t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100838530S</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
     <t>Juliana Cossa</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100007756P</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t xml:space="preserve">Lurdes Nhabanga </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110104027924A</t>
   </si>
   <si>
@@ -621,9 +606,6 @@
     <t>Suzete Vasco Monjane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110201585376Q</t>
   </si>
   <si>
@@ -708,9 +690,6 @@
     <t>Elisa Nicolau Mabunda</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110201520486A</t>
   </si>
   <si>
@@ -991,9 +970,6 @@
   </si>
   <si>
     <t xml:space="preserve">Guilhermina Carlota </t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
   </si>
   <si>
     <t>Casado</t>
@@ -3015,7 +2991,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3031,7 +3007,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3047,7 +3023,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3063,7 +3039,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3079,7 +3055,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3094,9 +3070,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3104,7 +3078,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3115,7 +3089,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3124,7 +3098,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3136,7 +3110,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3144,7 +3118,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3240,7 +3214,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3283,7 +3257,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3610,7 +3584,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3626,7 +3600,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3642,7 +3616,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3658,7 +3632,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3674,7 +3648,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3689,9 +3663,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3699,7 +3671,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3710,7 +3682,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3719,7 +3691,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3731,7 +3703,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3739,7 +3711,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3835,7 +3807,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3878,7 +3850,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4205,7 +4177,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4221,7 +4193,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4237,7 +4209,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4253,7 +4225,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4269,7 +4241,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4284,9 +4256,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4294,7 +4264,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4305,7 +4275,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4314,7 +4284,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4326,7 +4296,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4334,7 +4304,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4430,7 +4400,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4473,7 +4443,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4800,7 +4770,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4816,7 +4786,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4832,7 +4802,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4848,7 +4818,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4864,7 +4834,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4879,9 +4849,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4889,7 +4857,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4900,7 +4868,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4909,7 +4877,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4921,7 +4889,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4929,7 +4897,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5025,7 +4993,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5068,7 +5036,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5395,7 +5363,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5411,7 +5379,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5427,7 +5395,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5443,7 +5411,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5459,7 +5427,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5474,9 +5442,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5484,7 +5450,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5495,7 +5461,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5504,7 +5470,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5516,7 +5482,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5524,7 +5490,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5620,7 +5586,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5663,7 +5629,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5990,7 +5956,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6006,7 +5972,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6022,7 +5988,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6038,7 +6004,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6054,7 +6020,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6069,9 +6035,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6079,7 +6043,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6090,7 +6054,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6099,7 +6063,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6111,7 +6075,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6215,7 +6179,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6258,7 +6222,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6585,7 +6549,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6601,7 +6565,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6617,7 +6581,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6633,7 +6597,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6649,7 +6613,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6664,9 +6628,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6674,7 +6636,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6685,7 +6647,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6694,7 +6656,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6706,7 +6668,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6714,7 +6676,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6810,7 +6772,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6853,7 +6815,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7180,7 +7142,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7196,7 +7158,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7212,7 +7174,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7228,7 +7190,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7244,7 +7206,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7259,9 +7221,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7269,7 +7229,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7280,7 +7240,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7289,7 +7249,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7301,7 +7261,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7309,7 +7269,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7405,7 +7365,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7448,7 +7408,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7775,7 +7735,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7791,7 +7751,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7807,7 +7767,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7823,7 +7783,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7839,7 +7799,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7854,9 +7814,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7864,7 +7822,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7875,7 +7833,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7884,7 +7842,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7896,7 +7854,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7904,7 +7862,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8000,7 +7958,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8043,7 +8001,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8370,7 +8328,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8386,7 +8344,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8402,7 +8360,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8418,7 +8376,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8434,7 +8392,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8449,9 +8407,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8459,7 +8415,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8470,7 +8426,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8479,7 +8435,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8491,7 +8447,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8499,7 +8455,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8595,7 +8551,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8638,7 +8594,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9044,9 +9000,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9054,7 +9008,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9065,7 +9019,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9074,7 +9028,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9086,7 +9040,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9094,7 +9048,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9190,7 +9144,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9233,7 +9187,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9560,7 +9514,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9576,7 +9530,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9592,7 +9546,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9608,7 +9562,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9624,7 +9578,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9639,9 +9593,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9649,7 +9601,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9660,7 +9612,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9669,7 +9621,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9681,7 +9633,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9689,7 +9641,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9785,7 +9737,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9828,7 +9780,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10155,7 +10107,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10171,7 +10123,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10187,7 +10139,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10203,7 +10155,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10219,7 +10171,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10234,9 +10186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10244,7 +10194,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10255,7 +10205,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10264,7 +10214,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10276,7 +10226,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10380,7 +10330,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10423,7 +10373,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10750,7 +10700,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10766,7 +10716,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10782,7 +10732,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10798,7 +10748,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10814,7 +10764,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10829,9 +10779,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10839,7 +10787,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10850,7 +10798,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10859,7 +10807,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10871,7 +10819,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10879,7 +10827,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10975,7 +10923,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11018,7 +10966,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11345,7 +11293,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11361,7 +11309,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11377,7 +11325,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11393,7 +11341,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11409,7 +11357,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11424,9 +11372,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11434,7 +11380,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11445,7 +11391,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11454,7 +11400,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11466,7 +11412,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11474,7 +11420,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11570,7 +11516,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11613,7 +11559,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11940,7 +11886,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11956,7 +11902,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11972,7 +11918,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11988,7 +11934,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12004,7 +11950,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12019,9 +11965,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12029,7 +11973,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12040,7 +11984,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12049,7 +11993,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12061,7 +12005,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12069,7 +12013,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12165,7 +12109,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12208,7 +12152,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12535,7 +12479,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12551,7 +12495,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12567,7 +12511,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12583,7 +12527,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12599,7 +12543,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12614,9 +12558,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12624,7 +12566,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12635,7 +12577,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12644,7 +12586,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12656,7 +12598,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12664,7 +12606,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12760,7 +12702,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12803,7 +12745,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13130,7 +13072,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13146,7 +13088,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13162,7 +13104,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13178,7 +13120,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13194,7 +13136,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13209,9 +13151,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13219,7 +13159,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13230,7 +13170,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13239,7 +13179,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13251,7 +13191,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13259,7 +13199,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13355,7 +13295,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13398,7 +13338,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13725,7 +13665,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13741,7 +13681,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13757,7 +13697,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13773,7 +13713,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13789,7 +13729,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13804,9 +13744,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13814,7 +13752,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13825,7 +13763,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13834,7 +13772,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13846,7 +13784,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13854,7 +13792,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13950,7 +13888,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13993,7 +13931,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14320,7 +14258,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14336,7 +14274,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14352,7 +14290,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14368,7 +14306,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14384,7 +14322,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14399,9 +14337,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14409,7 +14345,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14420,7 +14356,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14429,7 +14365,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14441,7 +14377,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14449,7 +14385,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14545,7 +14481,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14588,7 +14524,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14915,7 +14851,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14931,7 +14867,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14947,7 +14883,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14963,7 +14899,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14979,7 +14915,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14994,9 +14930,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15004,7 +14938,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15015,7 +14949,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15024,7 +14958,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15036,7 +14970,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15044,7 +14978,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15140,7 +15074,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15183,7 +15117,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15510,7 +15444,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15526,7 +15460,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15542,7 +15476,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15558,7 +15492,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15574,7 +15508,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15589,9 +15523,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15599,7 +15531,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15610,7 +15542,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15619,7 +15551,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15631,7 +15563,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15639,7 +15571,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15735,7 +15667,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15778,7 +15710,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16105,7 +16037,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16121,7 +16053,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16137,7 +16069,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16153,7 +16085,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16169,7 +16101,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16184,9 +16116,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16194,7 +16124,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16205,7 +16135,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16214,7 +16144,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16226,7 +16156,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16234,7 +16164,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16330,7 +16260,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16373,7 +16303,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16700,7 +16630,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16716,7 +16646,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16732,7 +16662,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16748,7 +16678,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16764,7 +16694,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16779,9 +16709,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16789,7 +16717,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16800,7 +16728,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16809,7 +16737,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16821,7 +16749,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16829,7 +16757,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16925,7 +16853,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16968,7 +16896,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17295,7 +17223,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17311,7 +17239,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17327,7 +17255,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17343,7 +17271,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17359,7 +17287,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17374,9 +17302,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17384,7 +17310,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17395,7 +17321,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17404,7 +17330,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17416,7 +17342,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17424,7 +17350,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17520,7 +17446,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17563,7 +17489,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17890,7 +17816,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17906,7 +17832,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17922,7 +17848,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17938,7 +17864,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17954,7 +17880,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17969,9 +17895,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17979,7 +17903,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17990,7 +17914,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17999,7 +17923,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18011,7 +17935,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18019,7 +17943,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18115,7 +18039,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18158,7 +18082,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18485,7 +18409,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18501,7 +18425,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18517,7 +18441,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18533,7 +18457,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18549,7 +18473,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18564,9 +18488,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18574,7 +18496,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18585,7 +18507,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18594,7 +18516,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18606,7 +18528,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18614,7 +18536,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18710,7 +18632,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18753,7 +18675,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19080,7 +19002,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19096,7 +19018,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19112,7 +19034,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19128,7 +19050,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19144,7 +19066,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19159,9 +19081,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>301</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19169,7 +19089,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19180,7 +19100,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19189,7 +19109,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19201,7 +19121,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19209,7 +19129,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19305,7 +19225,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19348,7 +19268,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19675,7 +19595,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19691,7 +19611,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19707,7 +19627,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19723,7 +19643,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19739,7 +19659,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19754,9 +19674,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19764,7 +19682,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19775,7 +19693,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19784,7 +19702,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19796,7 +19714,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19804,7 +19722,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19900,7 +19818,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19943,7 +19861,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20270,7 +20188,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20286,7 +20204,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20302,7 +20220,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20318,7 +20236,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20334,7 +20252,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20349,9 +20267,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20359,7 +20275,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20370,7 +20286,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20379,7 +20295,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20391,7 +20307,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20399,7 +20315,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20495,7 +20411,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20538,7 +20454,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20865,7 +20781,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20881,7 +20797,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20897,7 +20813,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20913,7 +20829,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20929,7 +20845,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20944,9 +20860,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20954,7 +20868,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20965,7 +20879,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20974,7 +20888,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20986,7 +20900,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20994,7 +20908,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21090,7 +21004,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21133,7 +21047,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21460,7 +21374,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21476,7 +21390,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21492,7 +21406,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21508,7 +21422,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21524,7 +21438,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21539,9 +21453,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21549,7 +21461,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21560,7 +21472,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21569,7 +21481,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21581,7 +21493,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21589,7 +21501,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21685,7 +21597,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21728,7 +21640,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22055,7 +21967,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22071,7 +21983,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22087,7 +21999,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22103,7 +22015,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22119,7 +22031,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22134,9 +22046,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22144,7 +22054,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22155,7 +22065,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22164,7 +22074,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22176,7 +22086,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22184,7 +22094,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22280,7 +22190,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22323,7 +22233,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22650,7 +22560,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22666,7 +22576,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22682,7 +22592,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22698,7 +22608,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22714,7 +22624,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22729,9 +22639,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22739,7 +22647,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22750,7 +22658,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22759,7 +22667,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22771,7 +22679,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22779,7 +22687,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22875,7 +22783,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22918,7 +22826,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23245,7 +23153,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23261,7 +23169,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23277,7 +23185,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23293,7 +23201,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23309,7 +23217,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23324,9 +23232,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23334,7 +23240,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23345,7 +23251,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23354,7 +23260,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23366,7 +23272,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23374,7 +23280,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23470,7 +23376,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23513,7 +23419,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23840,7 +23746,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23856,7 +23762,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23872,7 +23778,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23888,7 +23794,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23904,7 +23810,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23919,9 +23825,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23929,7 +23833,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23940,7 +23844,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23949,7 +23853,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23961,7 +23865,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23969,7 +23873,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24065,7 +23969,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24108,7 +24012,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24435,7 +24339,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24451,7 +24355,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24467,7 +24371,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24483,7 +24387,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24499,7 +24403,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24514,9 +24418,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>301</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24524,7 +24426,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24535,7 +24437,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24544,7 +24446,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24556,7 +24458,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24564,7 +24466,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24660,7 +24562,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24703,7 +24605,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25030,7 +24932,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25046,7 +24948,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25062,7 +24964,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25078,7 +24980,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25094,7 +24996,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25109,9 +25011,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25119,7 +25019,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25130,7 +25030,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25139,7 +25039,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25151,7 +25051,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25159,7 +25059,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25255,7 +25155,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25298,7 +25198,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25625,7 +25525,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25641,7 +25541,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25657,7 +25557,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25673,7 +25573,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25689,7 +25589,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25704,9 +25604,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25714,7 +25612,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25725,7 +25623,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25734,7 +25632,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25746,7 +25644,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25754,7 +25652,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25850,7 +25748,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25893,7 +25791,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26220,7 +26118,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26236,7 +26134,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26252,7 +26150,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26268,7 +26166,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26284,7 +26182,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26299,9 +26197,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26309,7 +26205,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26320,7 +26216,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26329,7 +26225,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26341,7 +26237,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26349,7 +26245,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26445,7 +26341,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26488,7 +26384,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26815,7 +26711,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26831,7 +26727,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26847,7 +26743,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26863,7 +26759,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26879,7 +26775,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26894,9 +26790,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26904,7 +26798,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26915,7 +26809,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26924,7 +26818,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26936,7 +26830,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26944,7 +26838,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27040,7 +26934,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27083,7 +26977,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27410,7 +27304,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27426,7 +27320,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27442,7 +27336,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27458,7 +27352,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27474,7 +27368,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27489,9 +27383,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27499,7 +27391,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27510,7 +27402,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27519,7 +27411,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27531,7 +27423,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27539,7 +27431,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27635,7 +27527,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27678,7 +27570,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28005,7 +27897,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28021,7 +27913,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28037,7 +27929,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28053,7 +27945,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28069,7 +27961,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28084,9 +27976,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28094,7 +27984,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28105,7 +27995,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28114,7 +28004,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28126,7 +28016,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28134,7 +28024,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28230,7 +28120,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28273,7 +28163,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28600,7 +28490,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28616,7 +28506,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28632,7 +28522,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28648,7 +28538,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28664,7 +28554,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28679,9 +28569,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28689,7 +28577,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28700,7 +28588,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28709,7 +28597,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28721,7 +28609,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28729,7 +28617,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28825,7 +28713,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28868,7 +28756,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29195,7 +29083,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29211,7 +29099,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29227,7 +29115,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29243,7 +29131,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29259,7 +29147,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29274,9 +29162,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29284,7 +29170,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29295,7 +29181,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29304,7 +29190,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29316,7 +29202,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29324,7 +29210,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29420,7 +29306,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29463,7 +29349,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29790,7 +29676,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29806,7 +29692,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29822,7 +29708,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29838,7 +29724,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29854,7 +29740,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29869,9 +29755,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29879,7 +29763,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29890,7 +29774,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29899,7 +29783,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29911,7 +29795,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29919,7 +29803,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30015,7 +29899,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30058,7 +29942,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30385,7 +30269,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30401,7 +30285,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30417,7 +30301,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30433,7 +30317,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30449,7 +30333,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30464,9 +30348,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30474,7 +30356,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30485,7 +30367,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30494,7 +30376,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30506,7 +30388,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30514,7 +30396,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30610,7 +30492,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30653,7 +30535,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30980,7 +30862,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30996,7 +30878,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31012,7 +30894,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31028,7 +30910,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31044,7 +30926,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31059,9 +30941,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31069,7 +30949,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31080,7 +30960,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31089,7 +30969,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31101,7 +30981,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31205,7 +31085,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31248,7 +31128,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31575,7 +31455,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31591,7 +31471,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31607,7 +31487,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31623,7 +31503,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31639,7 +31519,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31654,9 +31534,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31664,7 +31542,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31675,7 +31553,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31684,7 +31562,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31696,7 +31574,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31704,7 +31582,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31800,7 +31678,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31843,7 +31721,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32170,7 +32048,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32186,7 +32064,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32202,7 +32080,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32218,7 +32096,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32234,7 +32112,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32249,9 +32127,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32259,7 +32135,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32270,7 +32146,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32279,7 +32155,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32291,7 +32167,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32299,7 +32175,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32395,7 +32271,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32438,7 +32314,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32765,7 +32641,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32781,7 +32657,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32797,7 +32673,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32813,7 +32689,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32829,7 +32705,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32844,9 +32720,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32854,7 +32728,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32865,7 +32739,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32874,7 +32748,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32886,7 +32760,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32894,7 +32768,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32990,7 +32864,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33033,7 +32907,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33360,7 +33234,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33376,7 +33250,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33392,7 +33266,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33408,7 +33282,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33424,7 +33298,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33439,9 +33313,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33449,7 +33321,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33460,7 +33332,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33469,7 +33341,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33481,7 +33353,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33489,7 +33361,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33585,7 +33457,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33628,7 +33500,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33955,7 +33827,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33971,7 +33843,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34162,7 +34034,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34528,7 +34400,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34544,7 +34416,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34560,7 +34432,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34576,7 +34448,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34592,7 +34464,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34607,9 +34479,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34617,7 +34487,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34628,7 +34498,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34637,7 +34507,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34649,7 +34519,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34657,7 +34527,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34753,7 +34623,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34796,7 +34666,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -35123,7 +34993,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35139,7 +35009,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35155,7 +35025,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35171,7 +35041,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35187,7 +35057,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35202,9 +35072,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35212,7 +35080,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35223,7 +35091,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35232,7 +35100,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35244,7 +35112,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35252,7 +35120,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35348,7 +35216,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35391,7 +35259,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -35718,7 +35586,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35734,7 +35602,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35750,7 +35618,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35766,7 +35634,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35782,7 +35650,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35797,9 +35665,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35807,7 +35673,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35818,7 +35684,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35827,7 +35693,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35839,7 +35705,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35943,7 +35809,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35986,7 +35852,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36313,7 +36179,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36329,7 +36195,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36345,7 +36211,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36361,7 +36227,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36377,7 +36243,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36392,9 +36258,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36402,7 +36266,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36413,7 +36277,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36422,7 +36286,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36434,7 +36298,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36442,7 +36306,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -36538,7 +36402,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36581,7 +36445,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36908,7 +36772,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36924,7 +36788,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36940,7 +36804,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36956,7 +36820,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36985,9 +36849,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36995,7 +36857,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -37006,7 +36868,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -37015,7 +36877,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -37027,7 +36889,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -37035,7 +36897,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -37131,7 +36993,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37174,7 +37036,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37501,7 +37363,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37517,7 +37379,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37533,7 +37395,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -37549,7 +37411,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -37565,7 +37427,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -37580,9 +37442,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -37590,7 +37450,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -37601,7 +37461,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -37610,7 +37470,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -37622,7 +37482,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -37630,7 +37490,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -37726,7 +37586,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37769,7 +37629,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -38096,7 +37956,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -38112,7 +37972,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38128,7 +37988,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38144,7 +38004,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38160,7 +38020,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38175,9 +38035,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38185,7 +38043,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38196,7 +38054,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38205,7 +38063,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38217,7 +38075,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38225,7 +38083,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38321,7 +38179,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38364,7 +38222,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -38691,7 +38549,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -38707,7 +38565,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38723,7 +38581,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38739,7 +38597,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38755,7 +38613,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38770,9 +38628,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38780,7 +38636,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38791,7 +38647,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38800,7 +38656,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38812,7 +38668,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38820,7 +38676,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38916,7 +38772,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38959,7 +38815,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -39286,7 +39142,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -39302,7 +39158,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -39318,7 +39174,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -39334,7 +39190,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -39350,7 +39206,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -39365,9 +39221,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -39375,7 +39229,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -39386,7 +39240,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -39395,7 +39249,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -39407,7 +39261,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -39415,7 +39269,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -39511,7 +39365,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -39554,7 +39408,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -39881,7 +39735,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -39897,7 +39751,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -39913,7 +39767,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -39929,7 +39783,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -39945,7 +39799,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -39960,9 +39814,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -39970,7 +39822,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -39981,7 +39833,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -39990,7 +39842,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -40002,7 +39854,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -40010,7 +39862,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -40106,7 +39958,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -40149,7 +40001,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -40476,7 +40328,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -40492,7 +40344,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -40508,7 +40360,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -40524,7 +40376,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -40540,7 +40392,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -40555,9 +40407,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -40565,7 +40415,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -40576,7 +40426,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -40585,7 +40435,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -40597,7 +40447,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -40605,7 +40455,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -40701,7 +40551,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -40744,7 +40594,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -41071,7 +40921,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -41087,7 +40937,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -41103,7 +40953,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -41119,7 +40969,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -41135,7 +40985,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -41150,9 +41000,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -41160,7 +41008,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -41171,7 +41019,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -41180,7 +41028,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -41192,7 +41040,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -41200,7 +41048,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -41296,7 +41144,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -41339,7 +41187,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -41666,7 +41514,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -41682,7 +41530,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -41698,7 +41546,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -41714,7 +41562,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -41730,7 +41578,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -41745,9 +41593,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -41755,7 +41601,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -41766,7 +41612,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -41775,7 +41621,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -41787,7 +41633,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -41795,7 +41641,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -41891,7 +41737,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -41934,7 +41780,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -42261,7 +42107,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -42277,7 +42123,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -42293,7 +42139,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -42309,7 +42155,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -42325,7 +42171,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -42340,9 +42186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -42350,7 +42194,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -42361,7 +42205,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -42370,7 +42214,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -42382,7 +42226,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -42390,7 +42234,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -42486,7 +42330,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -42529,7 +42373,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -42856,7 +42700,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -42872,7 +42716,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -42888,7 +42732,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -42904,7 +42748,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -42920,7 +42764,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -42935,9 +42779,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -42945,7 +42787,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -42956,7 +42798,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -42965,7 +42807,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -42977,7 +42819,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -42985,7 +42827,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -43081,7 +42923,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -43124,7 +42966,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -43507,7 +43349,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -43523,7 +43365,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -43539,7 +43381,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -43555,7 +43397,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -43571,7 +43413,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -43586,9 +43428,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -43596,7 +43436,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -43607,7 +43447,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -43616,7 +43456,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -43628,7 +43468,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -43636,7 +43476,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -43732,7 +43572,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -43775,7 +43615,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -44102,7 +43942,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -44118,7 +43958,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -44134,7 +43974,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -44150,7 +43990,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -44166,7 +44006,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -44181,9 +44021,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -44191,7 +44029,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -44202,7 +44040,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -44211,7 +44049,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -44223,7 +44061,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -44231,7 +44069,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -44327,7 +44165,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -44370,7 +44208,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
